--- a/src/main/resources/AddVehiclexpense.xlsx
+++ b/src/main/resources/AddVehiclexpense.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>No of units</t>
   </si>
@@ -48,10 +48,13 @@
     <t>76</t>
   </si>
   <si>
-    <t>275</t>
-  </si>
-  <si>
-    <t>14062023</t>
+    <t>Toll Expense</t>
+  </si>
+  <si>
+    <t>20062023</t>
+  </si>
+  <si>
+    <t>355</t>
   </si>
 </sst>
 </file>
@@ -399,7 +402,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F15" activeCellId="1" sqref="C2 F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -435,13 +438,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>11</v>

--- a/src/main/resources/AddVehiclexpense.xlsx
+++ b/src/main/resources/AddVehiclexpense.xlsx
@@ -51,10 +51,10 @@
     <t>Toll Expense</t>
   </si>
   <si>
-    <t>20062023</t>
-  </si>
-  <si>
-    <t>355</t>
+    <t>356</t>
+  </si>
+  <si>
+    <t>26062023</t>
   </si>
 </sst>
 </file>
@@ -402,7 +402,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" activeCellId="1" sqref="C2 F15"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -438,16 +438,16 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">

--- a/src/main/resources/AddVehiclexpense.xlsx
+++ b/src/main/resources/AddVehiclexpense.xlsx
@@ -51,10 +51,10 @@
     <t>Toll Expense</t>
   </si>
   <si>
-    <t>356</t>
-  </si>
-  <si>
-    <t>26062023</t>
+    <t>14072023</t>
+  </si>
+  <si>
+    <t>379</t>
   </si>
 </sst>
 </file>
@@ -402,7 +402,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -438,16 +438,16 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
